--- a/src/test/resources/ExcelTestData/Team15_TestData.xlsx
+++ b/src/test/resources/ExcelTestData/Team15_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Priyanka Numpy Ninja docs and Projects\LMS_Team15_Apr2024\LMS-Hackathon-Team-15\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE3D31-0AA5-4D13-BCE8-0FA9CC6EF60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238A3B1-4DD9-4625-97AD-3C85D74F814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="224">
   <si>
     <t>Please login to LMS application</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>Admin User</t>
+  </si>
+  <si>
+    <t>InvalidUpdate_PhoneNumber</t>
+  </si>
+  <si>
+    <t>H1B</t>
   </si>
 </sst>
 </file>
@@ -761,12 +767,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -778,6 +778,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,10 +843,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -860,34 +866,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -1502,1159 +1516,1209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788AA9AD-10DC-4CF5-9D53-5F59AF9B065B}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="19"/>
+    <col min="10" max="10" width="13.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <v>1234567890</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1234567890</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1234567890</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K5" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3033031212</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M6" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P6" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="22">
+        <v>3033031212</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3033031212</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3021302111</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="18">
+        <v>3021302111</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="18">
+        <v>11111</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1234567890</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F19" s="18">
+        <v>11111</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1234567890</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="18">
+        <v>11111</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1234567890</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="20">
+        <v>9899</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2890</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1234567890</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="18">
+        <v>990011</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G22" s="18">
         <v>1234567890</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H22" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I22" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K22" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L22" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M22" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1237890</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="19">
+        <v>3033031212</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="O25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3033031212</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7">
-        <v>3033031212</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>3033031212</v>
-      </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>3033031212</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>3033031212</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>3033031212</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12">
-        <v>3033031212</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13">
-        <v>3033031212</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14">
-        <v>3033031212</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15">
-        <v>3033031212</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="L26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3021302111</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3021302111</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="2">
-        <v>11111</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="2">
-        <v>11111</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11111</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="8">
-        <v>9899</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2890</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="2">
-        <v>990011</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23">
-        <v>3033031212</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24">
-        <v>3033031212</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="2" t="s">
+      <c r="O26" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P26" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2684,7 +2748,9 @@
     <hyperlink ref="H22" r:id="rId22" xr:uid="{084BF7EF-0485-4C27-A65A-65CE4FCB43AC}"/>
     <hyperlink ref="M20" r:id="rId23" xr:uid="{0264487A-EC9E-4AC2-A98A-BEB64091B0E6}"/>
     <hyperlink ref="H21" r:id="rId24" xr:uid="{1F685D3A-6BDE-49D1-831B-4B684593642D}"/>
-    <hyperlink ref="H24" r:id="rId25" xr:uid="{26C0569C-143C-4159-AAFB-F6F5DB1B825A}"/>
+    <hyperlink ref="H25" r:id="rId25" xr:uid="{26C0569C-143C-4159-AAFB-F6F5DB1B825A}"/>
+    <hyperlink ref="M23" r:id="rId26" xr:uid="{38B71F6D-C723-4FD5-897C-470D866D7454}"/>
+    <hyperlink ref="H23" r:id="rId27" xr:uid="{C78180FF-3F2D-42F8-A457-F9896CD701BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2743,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AEC328-57B4-47DA-8EF3-D2B330BB3D45}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -2809,7 +2875,7 @@
       <c r="E2">
         <v>9996277776</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G2" t="s">
@@ -2821,7 +2887,7 @@
       <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>219</v>
       </c>
       <c r="K2" t="s">
@@ -2853,7 +2919,7 @@
       <c r="E3">
         <v>9998887776</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G3" t="s">
@@ -2865,7 +2931,7 @@
       <c r="I3" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>180</v>
       </c>
       <c r="K3" t="s">
@@ -2897,7 +2963,7 @@
       <c r="E4" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G4" t="s">
@@ -2909,7 +2975,7 @@
       <c r="I4" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>183</v>
       </c>
       <c r="K4" t="s">
@@ -2935,7 +3001,7 @@
       <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G5" t="s">
@@ -2947,7 +3013,7 @@
       <c r="I5" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="17"/>
       <c r="K5" t="s">
         <v>177</v>
       </c>
@@ -2977,7 +3043,7 @@
       <c r="I6" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>180</v>
       </c>
       <c r="K6" t="s">
@@ -3003,7 +3069,7 @@
       <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G7" t="s">
@@ -3015,7 +3081,7 @@
       <c r="I7" t="s">
         <v>184</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="17" t="s">
         <v>183</v>
       </c>
       <c r="K7" t="s">
@@ -3044,7 +3110,7 @@
       <c r="E8">
         <v>9996277776</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G8" t="s">
@@ -3056,7 +3122,7 @@
       <c r="I8" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>180</v>
       </c>
       <c r="K8" t="s">
@@ -3085,7 +3151,7 @@
       <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G9" t="s">
@@ -3097,7 +3163,7 @@
       <c r="I9" t="s">
         <v>176</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>183</v>
       </c>
       <c r="K9" t="s">
@@ -3138,7 +3204,7 @@
       <c r="I10" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>180</v>
       </c>
       <c r="K10" t="s">
@@ -3170,7 +3236,7 @@
       <c r="E11">
         <v>9996177776</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G11" t="s">
@@ -3240,165 +3306,165 @@
     <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="18"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
